--- a/biology/Botanique/Crepis_aurea/Crepis_aurea.xlsx
+++ b/biology/Botanique/Crepis_aurea/Crepis_aurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crepis aurea
 La Crépide dorée, ou Crépide orangée (Crepis aurea), est une espèce de plantes à fleurs de la famille des Astéracées.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Crépide dorée possède une inflorescence par tige, et un capitule de 2 à 3 cm de diamètre pour 10 à 30 cm de haut. Sa couleur est un orange flamboyant avec des variations allant du jaune au rouge. Les feuilles sont situées à la base de la tige et ont toutes une forme ovale plus ou moins dentée. On retrouve tout au long de la tige et sur le capitule des poils noirs étalés[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Crépide dorée possède une inflorescence par tige, et un capitule de 2 à 3 cm de diamètre pour 10 à 30 cm de haut. Sa couleur est un orange flamboyant avec des variations allant du jaune au rouge. Les feuilles sont situées à la base de la tige et ont toutes une forme ovale plus ou moins dentée. On retrouve tout au long de la tige et sur le capitule des poils noirs étalés. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa période de floraison s'étend de juin à août[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa période de floraison s'étend de juin à août.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante pousse dans les prairies de l’étage montagnard jusqu'aux prairies de l'étage alpin (entre 1 500 et 2 900 m)[1]. Pour assurer sa croissance elle à besoin  d'un milieu ensoleillé avec un sol fertile peu calcaire, riche en nutriments.
-On la retrouve dans les massifs montagneux du sud de l'Europe, et en France la sous espèce aurea n'est présente que dans le Jura et les Alpes[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse dans les prairies de l’étage montagnard jusqu'aux prairies de l'étage alpin (entre 1 500 et 2 900 m). Pour assurer sa croissance elle à besoin  d'un milieu ensoleillé avec un sol fertile peu calcaire, riche en nutriments.
+On la retrouve dans les massifs montagneux du sud de l'Europe, et en France la sous espèce aurea n'est présente que dans le Jura et les Alpes,.
 </t>
         </is>
       </c>
